--- a/Demographics_and_Clinical_Variables.xlsx
+++ b/Demographics_and_Clinical_Variables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Virendra\CTx_04222020\For_Sharing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Chrome_Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -464,9 +464,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Years of Educatuib</t>
-  </si>
-  <si>
     <t>Processing Speed</t>
   </si>
   <si>
@@ -477,6 +474,9 @@
   </si>
   <si>
     <t>Years of Fighting</t>
+  </si>
+  <si>
+    <t>Years of Education</t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,7 @@
   <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -829,19 +829,19 @@
         <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
